--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>crude</t>
@@ -61,15 +64,12 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -79,10 +79,16 @@
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -91,106 +97,130 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friend</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>giving</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -548,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7363013698630136</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6086956521739131</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -835,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -885,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5277777777777778</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0.7931034482758621</v>
@@ -1067,37 +1097,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4473684210526316</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3862433862433862</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.75625</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3333333333333333</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3197674418604651</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C15">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D15">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7265625</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1677852348993289</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,21 +1389,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1866666666666667</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>61</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7021276595744681</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,47 +1439,71 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>231</v>
+      </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>120</v>
+      </c>
+      <c r="M19">
+        <v>120</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L19">
-        <v>23</v>
-      </c>
-      <c r="M19">
-        <v>23</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1437,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1463,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6285714285714286</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1489,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6279069767441861</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1515,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6235294117647059</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1541,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1567,47 +1645,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>16</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5627118644067797</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1619,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5555555555555556</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1645,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1671,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1697,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1723,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.475</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1749,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.449438202247191</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1775,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.3939393939393939</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1806,16 +1884,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.3111111111111111</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1827,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.2465753424657534</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1853,33 +1931,241 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.2435897435897436</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L37">
+        <v>52</v>
+      </c>
+      <c r="M37">
+        <v>52</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L43">
         <v>19</v>
       </c>
-      <c r="M37">
+      <c r="M43">
         <v>19</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>59</v>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45">
+        <v>0.2328767123287671</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>17</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
